--- a/publipostage/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
+++ b/publipostage/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,29 +493,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NCT00658463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NCT00851760</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Effects of Rosuvastatin on the, in Vivo, Kinetic of VLDL apoB, IDL apoB, LDL apoB and HDL apoA1, Using Stable Isotopes, in Type 2 Diabetic Patients</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Idiopathic Epiretinal Macular Membrane and Cataract Extraction : Combined vs Consecutive Surgery</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -521,29 +531,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT00851760</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT00658463</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Idiopathic Epiretinal Macular Membrane and Cataract Extraction : Combined vs Consecutive Surgery</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Effects of Rosuvastatin on the, in Vivo, Kinetic of VLDL apoB, IDL apoB, LDL apoB and HDL apoA1, Using Stable Isotopes, in Type 2 Diabetic Patients</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -554,24 +569,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT01907620</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT00629044</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Etude du Polymorphysme génétique de la cholestérol 24S Hydroxylase et Des Teneurs en 24S hydroxycholestérol Chez Des Patients Atteints de Glaucome ou de dégénérescence Maculaire liée à l'âge.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -583,32 +607,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT02873858</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT01481987</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Elucidation of Sensory Characteristics and Food Preferences in the Elderly</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AUPALESENS</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+          <t>Retinal Sensitivity and Optical Coherence Tomography Findings in Eyes With Idiopathic Epiretinal Membrane</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -620,28 +645,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT01481987</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT01907620</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Retinal Sensitivity and Optical Coherence Tomography Findings in Eyes With Idiopathic Epiretinal Membrane</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -653,28 +679,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT01599338</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT02873858</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Influence du Victoza (Liraglutide,Analogue GLP-1) Sur Les Performances Gustatives, le Rassasiement Sensoriel spécifique, le Liking et le Wanting Chez Les Patients diabétiques de Type 2.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="b">
-        <v>0</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Elucidation of Sensory Characteristics and Food Preferences in the Elderly</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>AUPALESENS</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -686,125 +721,153 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT00629044</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT01599338</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Etude du Polymorphysme génétique de la cholestérol 24S Hydroxylase et Des Teneurs en 24S hydroxycholestérol Chez Des Patients Atteints de Glaucome ou de dégénérescence Maculaire liée à l'âge.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Influence du Victoza (Liraglutide,Analogue GLP-1) Sur Les Performances Gustatives, le Rassasiement Sensoriel spécifique, le Liking et le Wanting Chez Les Patients diabétiques de Type 2.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT00354237</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT03657979</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Effect of Strict Glycemic Control on Improvement of Exercise Capacities (VO2 Peak, Peak Workload After Cardiac Rehabilitation, in Patients With Type 2 Diabetes Mellitus With Coronary Artery Disease.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Transversus Abdominis Plane (TAP) Block in Open Abdominal Aortic Surgery : Randomized Controlled Doubled-blind Trial Comparing Ropivacaine 0.2% Versus Placebo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>TAP-CACAO</t>
+        </is>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT01907477</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT00354237</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Effect of Strict Glycemic Control on Improvement of Exercise Capacities (VO2 Peak, Peak Workload After Cardiac Rehabilitation, in Patients With Type 2 Diabetes Mellitus With Coronary Artery Disease.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT00953498</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT01040559</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Influence of Glitazones on the Vasodilatory Effect of HDL Lipoproteins and on Phospholipase A2</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chemoembolisation of Non Resectable, Non Metastatic Hepatocellular Carcinomas Combining DC Bead Microspheres Loaded With Idarubicin (Zavedos®): Phase I Trial</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -814,65 +877,67 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT03657979</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT01907477</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Transversus Abdominis Plane (TAP) Block in Open Abdominal Aortic Surgery : Randomized Controlled Doubled-blind Trial Comparing Ropivacaine 0.2% Versus Placebo</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>TAP-CACAO</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT01040559</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT00953498</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Chemoembolisation of Non Resectable, Non Metastatic Hepatocellular Carcinomas Combining DC Bead Microspheres Loaded With Idarubicin (Zavedos®): Phase I Trial</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Influence of Glitazones on the Vasodilatory Effect of HDL Lipoproteins and on Phospholipase A2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -884,32 +949,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>NCT03656900</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Monocentric Pilot Study, for a Randomized, Crossover, Blinded Trial: Comparison of the Therapeutic Efficacy of Low Frequency Repeated Transcranial Magnetic Stimulation on Cortical Area 9 Compared to Brodmann Area 46 in the Treatment of Depressive Disorders.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>rTMS</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -921,32 +991,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>NCT01963299</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Prospective Randomised Double-blind Study to Compare Ropivacaine 10mg/mL Alone Versus Ropivacaine 10mg/mL Associated With Clonidine 1µg/kg for Peribulbar Anesthesia in Posterior Eye Surgery</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>CRAPO</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -958,32 +1033,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT01768078</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT01907399</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Interest of Intravitreal Corticotherapy as the First-line Treatment for Post-operative Endophthalmitis.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Endophtalmitis</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>IMMUNOBEDIA</t>
+        </is>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -995,32 +1071,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>NCT02028936</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Study of the Impact of the Regular Consumption of Polyphenol-rich Grape Juice on the Biological Parameters of Oxidative Stress and on Endothelial Function in Healthy Subjects: a Prospective Randomised Double-blind Study</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Fijus Raisol</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1032,32 +1113,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>NCT01510314</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Comparison of C-reactive Protein and Procalcitonin to Detect Infectious Complications After Elective Colorectal Surgery</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>IMACORS</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1069,32 +1155,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT02859090</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT02080728</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Single-centre Study of the Expression of Heat Shock Proteins in the Lymphocytes From the Tonsils of Patients With Various Diseases Requiring Tonsillectomy</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HOTLYMPHO</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
+          <t>Transversus Abdominis Plane Block During Kidney Transplant Surgery: Prospective Controlled Randomized Double-blind Trial Comparing Ropivacaine 0.2% With Placebo.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1106,28 +1193,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT01907399</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT02859090</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>IMMUNOBEDIA</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
+          <t>Single-centre Study of the Expression of Heat Shock Proteins in the Lymphocytes From the Tonsils of Patients With Various Diseases Requiring Tonsillectomy</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>HOTLYMPHO</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1139,28 +1235,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT02080728</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT01768078</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Transversus Abdominis Plane Block During Kidney Transplant Surgery: Prospective Controlled Randomized Double-blind Trial Comparing Ropivacaine 0.2% With Placebo.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="b">
-        <v>0</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Interest of Intravitreal Corticotherapy as the First-line Treatment for Post-operative Endophthalmitis.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Endophtalmitis</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1172,32 +1277,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT02810041</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
+          <t>2013-000950-23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Randomized Controlled Double-blind Clinical Trial for the Effect of Yoghurts Enriched in XXS vs Without XXS on the Evolution of Weight in Overweight Subjects Aged 50 to 65 Years.</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>VITALIM Senior</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
+          <t>Intérêt de la cryothérapie ou de l'aérosolisation par corticoïdes sur les troubles de la déglutition en post-opératoire précose après thyroïdectomie totale.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>DEGLUTHYR</t>
+        </is>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1209,29 +1319,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT01904812</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT02814240</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+          <t>Hepatic Steatosis and Pituitary Gland Failure, Evaluation by NMR Imaging</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SHAH</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1242,33 +1361,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT02814240</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT01904812</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Hepatic Steatosis and Pituitary Gland Failure, Evaluation by NMR Imaging</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>SHAH</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1279,32 +1399,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT01766362</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT01340222</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Incidence of Macular Edema After Panretinal Photocoagulation (PRPC) Performed in a Single Session Versus Four Sessions in Diabetic Patients.</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pascal</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>Evaluation of the Prognostic Value of Monocytes and Lymphocyte Phenotyping, Along With Intracellular MCP-1 Expression, to Predict Preterm Delivery for Women Hospitalized for Threat of Preterm Labor Between 24 and 34 Weeks of Amenorrhea: PhenoMAP Study</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PHENOMAP</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1316,32 +1441,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT02855866</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT01767038</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Interest of Cryotherapy or Cortisone Aerosol Therapy in Early Post-operative Swallowing Disorders Following Total Thyroidectomy</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DEGLUTHYR</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Study of Anatomical and Functional Recovery Following Retinal Detachment: Identify Correlations Between Visual Acuity and SD-OCT and Microperimetry Findings.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DOREFA</t>
+        </is>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1353,32 +1483,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT01340222</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT01766362</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Evaluation of the Prognostic Value of Monocytes and Lymphocyte Phenotyping, Along With Intracellular MCP-1 Expression, to Predict Preterm Delivery for Women Hospitalized for Threat of Preterm Labor Between 24 and 34 Weeks of Amenorrhea: PhenoMAP Study</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PHENOMAP</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Incidence of Macular Edema After Panretinal Photocoagulation (PRPC) Performed in a Single Session Versus Four Sessions in Diabetic Patients.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pascal</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1388,34 +1523,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2013-000950-23</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+          <t>NCT02855866</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Intérêt de la cryothérapie ou de l'aérosolisation par corticoïdes sur les troubles de la déglutition en post-opératoire précose après thyroïdectomie totale.</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Interest of Cryotherapy or Cortisone Aerosol Therapy in Early Post-operative Swallowing Disorders Following Total Thyroidectomy</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>DEGLUTHYR</t>
         </is>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1427,106 +1567,121 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT01767038</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT02810041</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Study of Anatomical and Functional Recovery Following Retinal Detachment: Identify Correlations Between Visual Acuity and SD-OCT and Microperimetry Findings.</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DOREFA</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Randomized Controlled Double-blind Clinical Trial for the Effect of Yoghurts Enriched in XXS vs Without XXS on the Evolution of Weight in Overweight Subjects Aged 50 to 65 Years.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>VITALIM Senior</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT01610258</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT01962116</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Contribution of the Study of Maternal Plasmatic Regulator T Cells and Th17 for the Diagnosis of Acute Chorioanmionitis Among Women Hospitalized for Premature Rupture of Fetal Membranes (PPROM) Between 24 and 34 Gestation Weeks</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ICAR</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Citrate Versus Heparin for the Lock of Non-tunneled Hemodialysis Catheters in Patients Hospitalised in ICU = Multicentre, Controlled, Randomised Superiority Trial</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>VERROU-REA</t>
+        </is>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT02851394</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT01900717</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Evaluation Of The Efficacy Of A Bolus Infiltration Of The Anaesthetic Tramadol Associated With Continuous Local Anaesthesia Administered Via A Wound Catheter Following Heart Surgery Via Sternotomy At Dijon Chu Single-Centre, Double-Blind, Randomized, Controlled Clinical Trial</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ATLAS</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Evaluation of Bevacizumab in Combination With First-Line Chemotherapy in Patients Aged 75 Years of Older With Metastatic Colorectal Adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Prodige20</t>
+        </is>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1538,107 +1693,122 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT02443818</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT02167724</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Non-randomised Open Label Pilot Study of Sirolimus Therapy for Segmental Overgrowth Due to PIK3CA- Related Overgrowth</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PROMISE</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>Multicentre Evaluation of Bucco-dental Health in Patients With Schizophrenia in Côte d'Or</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>BUCCODOR</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT02862899</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT01910038</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Use of a Heating Cable to Obtain Hyperthermia During Intraperitoneal Chemotherapy</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CHIPOFIL</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>Evaluation of Tocilizumab as an add-on Therapy to Corticoids in Giant Cell Arteritis: Proof of Concept Study.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>HORTOCI</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>🟧</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2014-005320-10</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+          <t>NCT02806882</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Non-randomised Open Label Pilot Study of Sirolimus Therapy for Segmental Overgrowth Due to PIK3CA- Related Overgrowth</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PROMISE</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftaroline in Patients With CSF Device</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Ceftaroline</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1649,70 +1819,80 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT01904929</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT01618981</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Evaluation of the Psychometric Properties of the 400m-walk-test at a Self-selected Speed (400m WT) for Stable Coronary Patients</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TML 400 m</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>LEft Atrial Pacing in Diastolic Heart Failure</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>LEAD</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT01962116</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02443818</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Citrate Versus Heparin for the Lock of Non-tunneled Hemodialysis Catheters in Patients Hospitalised in ICU = Multicentre, Controlled, Randomised Superiority Trial</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VERROU-REA</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
+          <t>Non-randomised Open Label Pilot Study of Sirolimus Therapy for Segmental Overgrowth Due to PIK3CA- Related Overgrowth</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>PROMISE</t>
+        </is>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1723,28 +1903,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT02028949</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT01904929</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>LIDA-B: Treatment of Cirrhosis-related Hepatocellular Carcinoma With the Intrahepatic Arterial Injection of an Emulsion of Lipiodol and Idarubicin (Zavedos®): Phase I Study</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="b">
-        <v>0</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Evaluation of the Psychometric Properties of the 400m-walk-test at a Self-selected Speed (400m WT) for Stable Coronary Patients</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>TML 400 m</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1756,32 +1945,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02167724</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
+          <t>2014-005320-10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Multicentre Evaluation of Bucco-dental Health in Patients With Schizophrenia in Côte d'Or</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BUCCODOR</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>Non-randomised Open Label Pilot Study of Sirolimus Therapy for Segmental Overgrowth Due to PIK3CA- Related Overgrowth</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>PROMISE</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1793,70 +1987,76 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT01618981</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT01610258</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>LEft Atrial Pacing in Diastolic Heart Failure</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>LEAD</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>Contribution of the Study of Maternal Plasmatic Regulator T Cells and Th17 for the Diagnosis of Acute Chorioanmionitis Among Women Hospitalized for Premature Rupture of Fetal Membranes (PPROM) Between 24 and 34 Gestation Weeks</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ICAR</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT01910038</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT03227887</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Evaluation of Tocilizumab as an add-on Therapy to Corticoids in Giant Cell Arteritis: Proof of Concept Study.</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>HORTOCI</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation of the Link Between the Characteristics of Oral Physiology and Formation of the Food Bolus During the Consumption of Cereal Products in Elderly People Via a Modelling Approach.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1867,32 +2067,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT02851602</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT02856009</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Phospholipid and Sphingolipid Composition of High-density Lipoproteins (HDL) in Obese Non-diabetic Patients With Metabolic Syndrome</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SPHINGO</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Impact of Nutritional Status and Frailty on the Prognosis of Patients Over 75 Years Old Who Suffered a Stroke</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1904,66 +2109,76 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT03227887</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT01762683</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Evaluation of the Link Between the Characteristics of Oral Physiology and Formation of the Food Bolus During the Consumption of Cereal Products in Elderly People Via a Modelling Approach.</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="b">
-        <v>0</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Study of Role of Mononuclear Cells of Maternal Peripheric Blood in Human Myometrial Primar Cell Lines Differentiation Toward a Contratyl Phenotype: Influence of Preconceptional Obesity</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ObeDi</t>
+        </is>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT02806882</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT02028949</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftaroline in Patients With CSF Device</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ceftaroline</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
+          <t>LIDA-B: Treatment of Cirrhosis-related Hepatocellular Carcinoma With the Intrahepatic Arterial Injection of an Emulsion of Lipiodol and Idarubicin (Zavedos®): Phase I Study</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1974,33 +2189,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT01900717</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02851602</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Evaluation of Bevacizumab in Combination With First-Line Chemotherapy in Patients Aged 75 Years of Older With Metastatic Colorectal Adenocarcinoma</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Prodige20</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>Phospholipid and Sphingolipid Composition of High-density Lipoproteins (HDL) in Obese Non-diabetic Patients With Metabolic Syndrome</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>SPHINGO</t>
+        </is>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2011,107 +2231,122 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02856009</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT02862899</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Impact of Nutritional Status and Frailty on the Prognosis of Patients Over 75 Years Old Who Suffered a Stroke</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>INFRA</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>Use of a Heating Cable to Obtain Hyperthermia During Intraperitoneal Chemotherapy</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CHIPOFIL</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT01762683</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT02851394</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Study of Role of Mononuclear Cells of Maternal Peripheric Blood in Human Myometrial Primar Cell Lines Differentiation Toward a Contratyl Phenotype: Influence of Preconceptional Obesity</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ObeDi</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>Evaluation Of The Efficacy Of A Bolus Infiltration Of The Anaesthetic Tramadol Associated With Continuous Local Anaesthesia Administered Via A Wound Catheter Following Heart Surgery Via Sternotomy At Dijon Chu Single-Centre, Double-Blind, Randomized, Controlled Clinical Trial</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ATLAS</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT01907581</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT02656654</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Impact of Socio-economic Vulnerability on Initial Severity and Prognosis in Patients Admitted to an ICU. Prospective, Multi-centre Cohort Study</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>IVOIRE</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>Pilot Study to Evaluate the Efficacy of and the Tolerance to a Body Bandage to Maintain Fluid Balance in Patients With Severe Sepsis or in Septic Shock in an ICU</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>COCOON</t>
+        </is>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2122,32 +2357,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT02656654</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT03201328</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Pilot Study to Evaluate the Efficacy of and the Tolerance to a Body Bandage to Maintain Fluid Balance in Patients With Severe Sepsis or in Septic Shock in an ICU</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>COCOON</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+          <t>Prospective, Single Centre Cohort Study on the Impact of Binaural Audition on Postural Performance and Orientation in Healthy Subjects and Patients With Cochlear Implants.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>AUDIPIC</t>
+        </is>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2159,70 +2399,80 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>NCT02851433</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Evaluate the Protective Effect of Conditioning With Sevoflurane Versus Propofol on the Myocardium in Scheduled Aortic Valve Replacement Surgery</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>SUPRA</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT03201328</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT01907581</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Prospective, Single Centre Cohort Study on the Impact of Binaural Audition on Postural Performance and Orientation in Healthy Subjects and Patients With Cochlear Implants.</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AUDIPIC</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
+          <t>Impact of Socio-economic Vulnerability on Initial Severity and Prognosis in Patients Admitted to an ICU. Prospective, Multi-centre Cohort Study</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>IVOIRE</t>
+        </is>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2233,32 +2483,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>NCT02851524</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Proof of Concept Study Concerning Vestibular Stimulation Using a New Method of Dynamic Posturography.</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>POSTURODYN</t>
         </is>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2270,34 +2525,39 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>NCT02730832</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Validation of Scale to Evaluate the Perception of Oral Health in Patients With Schizophrenia</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>QUALITY</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
       </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2305,35 +2565,40 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2012-002817-20</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
+          <t>NCT03215420</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Etude préliminaire visant à étudier l’effet de la rTMS et des antidépresseurs ISRS sur l’expression leucocytaire des gènes C-FOS et DUSP1 des patients traités pour un état dépressif</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TMSFOS</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+          <t>Diagnostic Agreement of Electrophysiological Audiovestibular Examinations With Magnetic Resonance Imaging (MRI) of the Inner Ear in Revealing Endolymphatic Hydrops (EH) in Patients With Certain or Probable Meniere's Disease (MD)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>MRI Meniere</t>
+        </is>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2344,32 +2609,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>NCT01798173</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>CIRCE: Environmental, Metabolic and Nutritional Factors of Hepatocellular Carcinoma in Cirrhotic Patients</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>CIRCE</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2381,32 +2651,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT02171897</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT02826083</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Comparison of Functional Recovery After Pertrochanter Fracture Treated With Either Total Hip Replacement or Centromedullary Nailing</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>PAVO</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+          <t>Randomized, Double-blind Study to Evaluate the Effects of XXS on Oxidative Stress in Patients With Mild or Moderate Hyperlipidemia and on Lipoprotein Kinetics</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>XXS SYMPA</t>
+        </is>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2418,32 +2693,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT03215420</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT02171897</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Diagnostic Agreement of Electrophysiological Audiovestibular Examinations With Magnetic Resonance Imaging (MRI) of the Inner Ear in Revealing Endolymphatic Hydrops (EH) in Patients With Certain or Probable Meniere's Disease (MD)</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MRI Meniere</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+          <t>Comparison of Functional Recovery After Pertrochanter Fracture Treated With Either Total Hip Replacement or Centromedullary Nailing</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>PAVO</t>
+        </is>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2455,32 +2735,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT02826083</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT02862860</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Randomized, Double-blind Study to Evaluate the Effects of XXS on Oxidative Stress in Patients With Mild or Moderate Hyperlipidemia and on Lipoprotein Kinetics</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>XXS SYMPA</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Influence of Glycaemic Variability on Oxidative Stress and High-density Lipoprotein (HDL) Function in Type-1 Diabetes</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Holter Gly</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2492,33 +2777,38 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT03215446</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
+          <t>2012-002817-20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Evaluation of Total (Pre and Post) Conditioning on Rhabdomyolysis of Sedation With Sevoflurane Versus Propofol in Vascular Surgery With Clamping</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PHAR</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+          <t>Etude préliminaire visant à étudier l’effet de la rTMS et des antidépresseurs ISRS sur l’expression leucocytaire des gènes C-FOS et DUSP1 des patients traités pour un état dépressif</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>TMSFOS</t>
+        </is>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2529,70 +2819,80 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT02862860</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT03215446</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Influence of Glycaemic Variability on Oxidative Stress and High-density Lipoprotein (HDL) Function in Type-1 Diabetes</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Holter Gly</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Evaluation of Total (Pre and Post) Conditioning on Rhabdomyolysis of Sedation With Sevoflurane Versus Propofol in Vascular Surgery With Clamping</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>PHAR</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT01766596</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT03864016</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Study the Signs of Ocular Degeneration in a Population Cohort (Dijon 3C Montrachet Cohort): Seek Correlations Between Signs of Neurological and Vascular Degeneration and Signs of Ocular Aging</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3C</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Ability of Pupillometry to Reduce Sufentanil Consumption in Planned Cardiac Surgery: Randomized, Controlled, Single-center Clinical Superiority Trial</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>PUCCAR</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2603,32 +2903,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT03491423</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT02824107</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Short and Fast Step Test: Feasibility, Validity and Tolerance of a Functional Evaluation Test of Lactic Anaerobic Capacities in Patients With Coronary Artery Disease</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CORANAE</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>INEqualities in Health Psychosocial Determinants of Neuro and Cardio-V@scuLar Disease: Identification of Novel Levers for Secondary Prevention</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>INEV@L</t>
+        </is>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2640,32 +2945,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>NCT03830580</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Benefit of Singing in the Care of Premature Children Undergoing Screening for Retinopathy of Prematurity in the Neonatology and Neonatal Resuscitation Unit of the Dijon University Hospital</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Voix Chantée</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2677,33 +2987,38 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02857192</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT03491423</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Study of Phenotypic and Functional Characteristics of Regulatory T Lymphocytes in Giant Cell Arteritis (Horton's Disease)</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ACG et TREG</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
+          <t>Short and Fast Step Test: Feasibility, Validity and Tolerance of a Functional Evaluation Test of Lactic Anaerobic Capacities in Patients With Coronary Artery Disease</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>CORANAE</t>
+        </is>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2714,28 +3029,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT01904799</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT02851420</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Casper</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Interest of Spectroscopy in the Diagnosis of Cancerous and Precancerous Lesions of the Upper Airways (UA): Pilot Study</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>SpectrORL1</t>
+        </is>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2745,30 +3069,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2016-003917-83</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
+          <t>NCT02156245</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Open and exploratory trial to investigate the pharmacokinetic of ceftobiprole medocaril  in patients with CSF device</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="b">
-        <v>0</v>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Evaluation of the Effects of Eccentric Training on a Cycle Ergometer, Versus Conventional Concentric Training</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>ENERGETIC</t>
+        </is>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2780,70 +3113,80 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT02824107</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT03317093</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>INEqualities in Health Psychosocial Determinants of Neuro and Cardio-V@scuLar Disease: Identification of Novel Levers for Secondary Prevention</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>INEV@L</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftobiprole Medocaril in Patients With CSF Device</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>BASILE</t>
+        </is>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT03864016</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT02859506</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Ability of Pupillometry to Reduce Sufentanil Consumption in Planned Cardiac Surgery: Randomized, Controlled, Single-center Clinical Superiority Trial</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PUCCAR</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+          <t>Eating Behaviour and Gustatory Sensitivity Before and After Liver Transplant in Cirrhotic Patients</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>GREFFE</t>
+        </is>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2854,33 +3197,38 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT02859506</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT02857192</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Eating Behaviour and Gustatory Sensitivity Before and After Liver Transplant in Cirrhotic Patients</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>GREFFE</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
+          <t>Study of Phenotypic and Functional Characteristics of Regulatory T Lymphocytes in Giant Cell Arteritis (Horton's Disease)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>ACG et TREG</t>
+        </is>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2891,32 +3239,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT03317093</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
+          <t>2016-003917-83</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftobiprole Medocaril in Patients With CSF Device</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>BASILE</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
+          <t>Open and exploratory trial to investigate the pharmacokinetic of ceftobiprole medocaril  in patients with CSF device</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2928,32 +3277,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT02156245</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT01904799</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Evaluation of the Effects of Eccentric Training on a Cycle Ergometer, Versus Conventional Concentric Training</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>ENERGETIC</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Casper</t>
+        </is>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2965,32 +3315,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT02851420</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT01766596</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Interest of Spectroscopy in the Diagnosis of Cancerous and Precancerous Lesions of the Upper Airways (UA): Pilot Study</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SpectrORL1</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Study the Signs of Ocular Degeneration in a Population Cohort (Dijon 3C Montrachet Cohort): Seek Correlations Between Signs of Neurological and Vascular Degeneration and Signs of Ocular Aging</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>3C</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3002,27 +3357,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>NCT02859753</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Prospective Randomized Controlled Study Comparing Response and Recurrence Rates Following Percutaneous Microwave Coagulation Therapy (MCT) Versus Percutaneous Radiofrequency Ablation (RFA) in Patients With Chronic Liver Disease and Hepatocellular Carcinoma</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Thermoablation</t>
         </is>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
@@ -3030,6 +3387,9 @@
       <c r="I72" t="b">
         <v>1</v>
       </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3039,103 +3399,118 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT04888143</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT02856074</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Optimization of Cochlear Implant Fitting in Patients With Functional Contralateral Hearing Using an Evolutionary Algorithm.</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Algo Fréq</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Prognosis After Revascularization Therapy in the Dijon Ischemic Stroke Evaluation Study</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>PARADISE</t>
+        </is>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT02402855</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT04888143</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Impact of Conditional Financial Support on Pregnancy Outcomes in Pregnant Women With Low Incomes: Pragmatic Randomized Cluster Trial, With Parallel Arms</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="b">
-        <v>1</v>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Optimization of Cochlear Implant Fitting in Patients With Functional Contralateral Hearing Using an Evolutionary Algorithm.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Algo Fréq</t>
+        </is>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT02856074</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT02402855</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Prognosis After Revascularization Therapy in the Dijon Ischemic Stroke Evaluation Study</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>PARADISE</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
+          <t>Impact of Conditional Financial Support on Pregnancy Outcomes in Pregnant Women With Low Incomes: Pragmatic Randomized Cluster Trial, With Parallel Arms</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3146,27 +3521,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>NCT03951519</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Effect of Oral Water on the Quality of Volume Expansion in Resuscitation Patients: Pilot Study (The Water Study)</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>WATER</t>
         </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -3174,79 +3551,92 @@
       <c r="I76" t="b">
         <v>1</v>
       </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT03288727</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT02505126</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Incidental Findings Produced by Diagnostic HTS: From the Needs of Patients to Organisational Considerations</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FIND</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+          <t>A Randomized Double-blind Clinical Trial on the Efficacy of Transcranial Direct Current Stimulation (tDCS) in Reducing Alcohol Consumption in Non-abstinent Patients With Alcohol Use Disorder</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>REDSTIM</t>
+        </is>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT02505126</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT03269058</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>A Randomized Double-blind Clinical Trial on the Efficacy of Transcranial Direct Current Stimulation (tDCS) in Reducing Alcohol Consumption in Non-abstinent Patients With Alcohol Use Disorder</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>REDSTIM</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
+          <t>Effects of Dapagliflozin on Lipoprotein Kinetics in Patients With Type 2 Diabetes</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Cinétique DAPA</t>
+        </is>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3257,32 +3647,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT03097276</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT03280875</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Management of Patients With High C-reactive Protein After Scheduled Resection of Colorectal Cancer: Pilot Study</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>GESPACE</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Personalisation of Exercise by Muscle Modulation, Step 1: Construction and Validation of an Algorithm for Personalisation for Pedalling Exercises</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>EXOMODE</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3294,32 +3689,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT03280875</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT04860414</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Personalisation of Exercise by Muscle Modulation, Step 1: Construction and Validation of an Algorithm for Personalisation for Pedalling Exercises</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>EXOMODE</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Prospective Monocentric Study of Taste in Patients With Minor or Major Cognitive Disorders Such as Alzheimer's, Through the Analysis of Gustatory Evoked Potentials</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>MAPEG</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3331,32 +3731,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT04860414</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT03288727</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Prospective Monocentric Study of Taste in Patients With Minor or Major Cognitive Disorders Such as Alzheimer's, Through the Analysis of Gustatory Evoked Potentials</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MAPEG</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>Incidental Findings Produced by Diagnostic HTS: From the Needs of Patients to Organisational Considerations</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>FIND</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3368,32 +3773,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT03269058</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT03097276</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Effects of Dapagliflozin on Lipoprotein Kinetics in Patients With Type 2 Diabetes</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Cinétique DAPA</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>Management of Patients With High C-reactive Protein After Scheduled Resection of Colorectal Cancer: Pilot Study</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>GESPACE</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3405,66 +3815,80 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT04591743</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT04820959</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Effectiveness of Transcranial Magnetic Stimulation (TMS) in Smoking Cessation, Combining Withdrawal Stimulation Followed by Maintenance Stimulation to Prevent Relapse: Single-center, Randomized, Controlled, Blinded Pilot Study</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>TabacStim2</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
+          <t>Validation of New Therapeutic Targets to Prevent Collagen Accumulation During Cardiac Fibrosis: Procollagen C-proteinase Enhancers</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>CARDIACTIV</t>
+        </is>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT03334526</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT02816099</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Corticospinal and Neuromuscular Plasticity Induced by Real and Imaginary Contractions.</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="b">
-        <v>0</v>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Study of the Influence of Glycaemic Balance on the Ability of Apolipoprotein C1 to Inhibit Cholesterol Ester Transfer Protein (CETP) in Type-1 Diabetes Patients</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>ApoC1</t>
+        </is>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3475,70 +3899,76 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT03818269</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT03334526</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Study of Subcutaneous Interstitial Pressure During Sepsis</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>PISEP</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
+          <t>Corticospinal and Neuromuscular Plasticity Induced by Real and Imaginary Contractions.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCT02816099</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NCT04591743</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Study of the Influence of Glycaemic Balance on the Ability of Apolipoprotein C1 to Inhibit Cholesterol Ester Transfer Protein (CETP) in Type-1 Diabetes Patients</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ApoC1</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
+          <t>Effectiveness of Transcranial Magnetic Stimulation (TMS) in Smoking Cessation, Combining Withdrawal Stimulation Followed by Maintenance Stimulation to Prevent Relapse: Single-center, Randomized, Controlled, Blinded Pilot Study</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>TabacStim2</t>
+        </is>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3549,70 +3979,80 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT04820959</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT03818269</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Validation of New Therapeutic Targets to Prevent Collagen Accumulation During Cardiac Fibrosis: Procollagen C-proteinase Enhancers</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>CARDIACTIV</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>Study of Subcutaneous Interstitial Pressure During Sepsis</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>PISEP</t>
+        </is>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT04886180</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT02085772</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Evaluation of Oxiris Membrane as a Treatment for Ischemia-reperfusion Syndrome in Cardiogenic Shock Treated With Extracorporeal Life Support (ECMO/ECLS): A Randomized Pilot Study ECMORIX</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ECMORIX</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
+          <t>Is Impaired Activation and Migration of Circulating Leukocytes Associated With Overdue Birth in Obese Women?</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>LOST</t>
+        </is>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3623,27 +4063,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>NCT05032521</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Treatment of Hyperlactatemia in Acute Circulatory Failure Based on Analysis of CO2: a Prospective Randomized Superiority Study (The LACTEL Study)</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>LACTEL</t>
         </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
@@ -3651,6 +4093,9 @@
       <c r="I89" t="b">
         <v>1</v>
       </c>
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3660,70 +4105,80 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NCT03773198</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NCT05739448</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Effectiveness of Energy Resonance by Skin Stimulation in the Management of Anxious Patients Who Require Scheduled Orthopaedic Surgery</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ERESCAO</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
+          <t>Impact of an Intervention Combining Fortified Meals and Physical Activity in the Prevention of Undernutrition in Seniors : a Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>FORTIPHY</t>
+        </is>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCT02085772</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NCT04886180</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Is Impaired Activation and Migration of Circulating Leukocytes Associated With Overdue Birth in Obese Women?</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>LOST</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>Evaluation of Oxiris Membrane as a Treatment for Ischemia-reperfusion Syndrome in Cardiogenic Shock Treated With Extracorporeal Life Support (ECMO/ECLS): A Randomized Pilot Study ECMORIX</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>ECMORIX</t>
+        </is>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3734,32 +4189,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>NCT03498001</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>Effects of GLP-1 Agonists on CArdiac Steatosis Evaluated by Magnetic Resonance Imaging</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>LICAS-MR</t>
         </is>
       </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3771,32 +4231,37 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT05739448</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT03773198</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Impact of an Intervention Combining Fortified Meals and Physical Activity in the Prevention of Undernutrition in Seniors : a Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>FORTIPHY</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
+          <t>Effectiveness of Energy Resonance by Skin Stimulation in the Management of Anxious Patients Who Require Scheduled Orthopaedic Surgery</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>ERESCAO</t>
+        </is>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3808,32 +4273,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NCT04886453</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NCT03711448</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Evaluation of Non-opioid Balanced General Anesthesia in Cardiac Surgery With Extracorporeal Circulation: a Randomized, Controlled, Multicenter Superiority Trial</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>OFACAR</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
+          <t>Ustekinumab for the Treatment of Relapse of Refractory Giant Cell Arteritis</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>ULTRA</t>
+        </is>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3845,32 +4315,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCT03711448</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NCT04886453</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Ustekinumab for the Treatment of Relapse of Refractory Giant Cell Arteritis</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ULTRA</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+          <t>Evaluation of Non-opioid Balanced General Anesthesia in Cardiac Surgery With Extracorporeal Circulation: a Randomized, Controlled, Multicenter Superiority Trial</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>OFACAR</t>
+        </is>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3882,27 +4357,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>NCT03480191</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>Adjunction of Daptomycin for the Treatment of Pneumococcal Meningitis: AddaMAP Study</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>AddaMAP</t>
         </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
@@ -3910,6 +4387,9 @@
       <c r="I96" t="b">
         <v>1</v>
       </c>
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3919,32 +4399,37 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>NCT04312178</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Combined Incentive Actions, Focusing on Primary Care, to Improve Cervical Cancer Screening in Women Residing in Socio-economically Disadvantaged and Untracked Geographical Areas: a Hybrid Efficacy and Implementation Trial</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>RESISTE</t>
         </is>
       </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3956,28 +4441,33 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NCT01884883</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NCT02557451</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Evaluation of a Distraction-rotation Knee Unloader Brace in Patients With Medial Knee Osteoarthritis.</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ORFEVRE</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
+          <t>Subretinal Haematoma in AMD: Randomized Controlled Study of 2 Therapeutic Approaches in the Antiangiogenic Era</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>STAR</t>
+        </is>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3989,28 +4479,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NCT02557451</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NCT02814747</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Subretinal Haematoma in AMD: Randomized Controlled Study of 2 Therapeutic Approaches in the Antiangiogenic Era</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>STAR</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
+          <t>Preferences and Representations Concerning High-throughput Sequencing Technologies in Medical Genetics. The Case of Development Anomalies.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4022,29 +4513,38 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NCT01950754</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Study of the Effect of a Cognitive Task on Static Balance in Depressive Elderly Subjects According to the Double Task Principle</t>
-        </is>
-      </c>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NCT01358747</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2010-022844-19</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>DOUBLE TACHE</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
+          <t>Randomized Phase III Study of a Treatment Driven by Early PET Response Compared to a Treatment Not Monitored by Early PET in Patients With Ann Arbor Stage III-IV or High Risk IIB Hodgkin Lymphoma</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>AHL 2011</t>
+        </is>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
+      </c>
+      <c r="J100" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -4055,24 +4555,33 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NCT02814747</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>NCT01950754</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Preferences and Representations Concerning High-throughput Sequencing Technologies in Medical Genetics. The Case of Development Anomalies.</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="b">
-        <v>0</v>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Study of the Effect of a Cognitive Task on Static Balance in Depressive Elderly Subjects According to the Double Task Principle</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>DOUBLE TACHE</t>
+        </is>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4084,28 +4593,33 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NCT02765685</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>NCT01884883</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Randomized Controlled Trial in Internal Compartment Knee Osteoarthritis: ODRA Made-to-measure Hinged Knee Brace Versus Usual Care.</t>
-        </is>
-      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ERGONOMIE</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
+          <t>Evaluation of a Distraction-rotation Knee Unloader Brace in Patients With Medial Knee Osteoarthritis.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>ORFEVRE</t>
+        </is>
       </c>
       <c r="H102" t="b">
         <v>0</v>
       </c>
       <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4117,29 +4631,34 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NCT01950975</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NCT02855970</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Screening for Chromosomal Microarrangements by CGH-array in Developmental Anomalies of the Skin Suggestive of Mosaicism. National Multicentre Descriptive Study.</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>MOSAÏQUE</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
+          <t>Development and Validation of a French Quality Of Life Scale Specific to Patients Who Have Suffered a Stroke</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>QUALI STROKE</t>
+        </is>
       </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4150,33 +4669,34 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NCT01358747</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2010-022844-19</t>
+          <t>NCT02080793</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Randomized Phase III Study of a Treatment Driven by Early PET Response Compared to a Treatment Not Monitored by Early PET in Patients With Ann Arbor Stage III-IV or High Risk IIB Hodgkin Lymphoma</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>AHL 2011</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
+          <t>STUDY OF PREFERENCES IN MEN FACED WITH THE DIFFERENT TREATMENT OPTIONS FOR LOCALIZED PROSTRATE CANCER WITH A GOOD OR INTERMEDIATE PROGNOSIS</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>CALIPSO</t>
+        </is>
       </c>
       <c r="H104" t="b">
         <v>0</v>
       </c>
       <c r="I104" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4187,28 +4707,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NCT02080793</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NCT02046707</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>STUDY OF PREFERENCES IN MEN FACED WITH THE DIFFERENT TREATMENT OPTIONS FOR LOCALIZED PROSTRATE CANCER WITH A GOOD OR INTERMEDIATE PROGNOSIS</t>
-        </is>
-      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>CALIPSO</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation of the Effects of Eccentric Muscle Training Versus Conventional Concentric Training in Chronic Heart Failure</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="b">
         <v>0</v>
       </c>
       <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4220,24 +4741,33 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NCT02046707</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NCT02055664</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Evaluation of the Effects of Eccentric Muscle Training Versus Conventional Concentric Training in Chronic Heart Failure</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="b">
-        <v>0</v>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>THE TAP BLOCK TECHNIQUE VIA THE ANTERIOR APPROACH IN ELECTIVE SURGERY OF THE SPINE: Prospective, Randomised, Double Blind Trial, Comparing TAP BLOCK With Continuous Infiltration of Ropivacaine Versus Placebo</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>TAPBloc Rachis</t>
+        </is>
       </c>
       <c r="H106" t="b">
         <v>0</v>
       </c>
       <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4249,28 +4779,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NCT02055664</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NCT02042508</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>THE TAP BLOCK TECHNIQUE VIA THE ANTERIOR APPROACH IN ELECTIVE SURGERY OF THE SPINE: Prospective, Randomised, Double Blind Trial, Comparing TAP BLOCK With Continuous Infiltration of Ropivacaine Versus Placebo</t>
-        </is>
-      </c>
+      <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>TAPBloc Rachis</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation of a Hybrid Prototype Strategy (Electrostimulation of Lower Limb Muscles Associated With Voluntary Strengthening of the Upper Limbs) in Reconditioning to Effort in Patients With Chronic Paraplegia.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="b">
         <v>0</v>
       </c>
       <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4282,28 +4813,33 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NCT02866474</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NCT02860299</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Efficacy of the Implementation of a Food and Nutritional Support Strategy Adapted to Dependent Elderly Subjects: Controlled Trial.</t>
-        </is>
-      </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>RENES+</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
+          <t>Evaluation of Systemic Leakage When a Heparin or Citrate Lock is Injected and Biological and Clinical Repercussions: Ancillary Study of the VERROU-REA Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>VERROU HEMOST</t>
+        </is>
       </c>
       <c r="H108" t="b">
         <v>0</v>
       </c>
       <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4315,24 +4851,33 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NCT02042508</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NCT02866474</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Evaluation of a Hybrid Prototype Strategy (Electrostimulation of Lower Limb Muscles Associated With Voluntary Strengthening of the Upper Limbs) in Reconditioning to Effort in Patients With Chronic Paraplegia.</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="b">
-        <v>0</v>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Efficacy of the Implementation of a Food and Nutritional Support Strategy Adapted to Dependent Elderly Subjects: Controlled Trial.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>RENES+</t>
+        </is>
       </c>
       <c r="H109" t="b">
         <v>0</v>
       </c>
       <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4344,28 +4889,33 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NCT02855970</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NCT02765685</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Development and Validation of a French Quality Of Life Scale Specific to Patients Who Have Suffered a Stroke</t>
-        </is>
-      </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>QUALI STROKE</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
+          <t>Randomized Controlled Trial in Internal Compartment Knee Osteoarthritis: ODRA Made-to-measure Hinged Knee Brace Versus Usual Care.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>ERGONOMIE</t>
+        </is>
       </c>
       <c r="H110" t="b">
         <v>0</v>
       </c>
       <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4377,29 +4927,34 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NCT02860299</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NCT01950975</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Evaluation of Systemic Leakage When a Heparin or Citrate Lock is Injected and Biological and Clinical Repercussions: Ancillary Study of the VERROU-REA Randomized Controlled Trial</t>
-        </is>
-      </c>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>VERROU HEMOST</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>0</v>
+          <t>Screening for Chromosomal Microarrangements by CGH-array in Developmental Anomalies of the Skin Suggestive of Mosaicism. National Multicentre Descriptive Study.</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>MOSAÏQUE</t>
+        </is>
       </c>
       <c r="H111" t="b">
         <v>0</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
+      </c>
+      <c r="J111" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4410,28 +4965,33 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>NCT02870010</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
         <is>
           <t>Chemoembolization of Non-resectable Non-metastatic Hepatocellular Carcinoma Using Embolization Microspheres (DC Bead™) Loaded With Idarubicin (Zavedos®): Phase 1 Study</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>IDASPHERE</t>
         </is>
       </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
       <c r="H112" t="b">
         <v>0</v>
       </c>
       <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4443,28 +5003,33 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NCT02812810</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NCT02862886</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Evaluation of the Efficacy of Low-frequency rTMS on Craving in Smoking Dependence: Single-centre Randomized, Controlled Blinded Pilot Study</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>rTMS TABAC</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
+          <t>Study of the Effect of Beta-3 Adrenergic Receptor Agonists on Oxidative Stress and Signalling Pathways Implicated in Remodelling of the Uteroplacental Space: Experimental in Vitro Approach on Myometrial Tissue Explants</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>STRESSOX</t>
+        </is>
       </c>
       <c r="H113" t="b">
         <v>0</v>
       </c>
       <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4476,28 +5041,33 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NCT02862886</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NCT02820662</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Study of the Effect of Beta-3 Adrenergic Receptor Agonists on Oxidative Stress and Signalling Pathways Implicated in Remodelling of the Uteroplacental Space: Experimental in Vitro Approach on Myometrial Tissue Explants</t>
-        </is>
-      </c>
+      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>STRESSOX</t>
-        </is>
-      </c>
-      <c r="G114" t="b">
-        <v>0</v>
+          <t>Study of the Implication of Omega-3 Polyunsaturated Fatty Acids in Retinopathy of Prematurity in Newborns</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>OMEGAROP</t>
+        </is>
       </c>
       <c r="H114" t="b">
         <v>0</v>
       </c>
       <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4509,28 +5079,33 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NCT02860260</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NCT02856191</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Kinetics of Plasma and Serum Levels of Brain-Derived Neurotrophic Factor (BDNF) in Patients With Ischemic Stroke: Effect of Intravenous Fibrinolysis With Rt-PA</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>BDNF</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>0</v>
+          <t>Prospective Study on the Frequency of de Novo Atrial Fibrillation in Septic Shock in Medical Intensive Care</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>FACS</t>
+        </is>
       </c>
       <c r="H115" t="b">
         <v>0</v>
       </c>
       <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4542,28 +5117,33 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NCT02856191</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NCT02860260</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Prospective Study on the Frequency of de Novo Atrial Fibrillation in Septic Shock in Medical Intensive Care</t>
-        </is>
-      </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>FACS</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
+          <t>Kinetics of Plasma and Serum Levels of Brain-Derived Neurotrophic Factor (BDNF) in Patients With Ischemic Stroke: Effect of Intravenous Fibrinolysis With Rt-PA</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>BDNF</t>
+        </is>
       </c>
       <c r="H116" t="b">
         <v>0</v>
       </c>
       <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4575,28 +5155,33 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NCT02820662</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>NCT02812810</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Study of the Implication of Omega-3 Polyunsaturated Fatty Acids in Retinopathy of Prematurity in Newborns</t>
-        </is>
-      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>OMEGAROP</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
+          <t>Evaluation of the Efficacy of Low-frequency rTMS on Craving in Smoking Dependence: Single-centre Randomized, Controlled Blinded Pilot Study</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>rTMS TABAC</t>
+        </is>
       </c>
       <c r="H117" t="b">
         <v>0</v>
       </c>
       <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4608,20 +5193,25 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>NCT01903694</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" t="b">
-        <v>0</v>
-      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="b">
         <v>0</v>
       </c>
       <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4633,28 +5223,33 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>NCT01950962</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
         <is>
           <t>ROLE OF PHOSPHOLIPID TRANSFER PROTEINS (PLTP) ON ENDOTOXEMIA CAUSED BY BUCCAL INFLAMMATION</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>TOXIB</t>
         </is>
       </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
       <c r="H119" t="b">
         <v>0</v>
       </c>
       <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4666,28 +5261,33 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>NCT02851680</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
         <is>
           <t>Prospective Study on the Interest of ß 1-3 D Glucan Assays in Screening for the Onset of Invasive Aspergillosis in Neutropenic Patients With Acute Leukaemia.</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>BETA GLUCAN</t>
         </is>
       </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
       <c r="H120" t="b">
         <v>0</v>
       </c>
       <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4697,30 +5297,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
         <is>
           <t>2021-000066-16</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
         <is>
           <t>ÉVALUATION D’UNE ANESTHÉSIE GÉNÉRALE BALANCÉE NON OPIOÏDE EN CHIRURGIE CARDIAQUE AVEC CIRCULATION EXTRA-CORPORELLE : ESSAI CLINIQUE RANDOMISÉ, CONTRÔLE, MULTICENTRIQUE DE SUPÉRIORITÉ</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>OFACAR</t>
         </is>
       </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
       <c r="H121" t="b">
         <v>0</v>
       </c>
       <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
+++ b/publipostage/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -635,6 +655,11 @@
       </c>
       <c r="J5" t="b">
         <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -670,6 +695,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -712,6 +742,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -750,6 +785,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -792,6 +832,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -830,6 +875,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -867,6 +917,11 @@
       </c>
       <c r="J11" t="b">
         <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -902,6 +957,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -940,6 +1000,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -982,6 +1047,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1024,6 +1094,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1062,6 +1137,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1104,6 +1184,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1146,6 +1231,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1184,6 +1274,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1226,6 +1321,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1268,6 +1368,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1310,6 +1415,7 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1352,6 +1458,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1390,6 +1501,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1432,6 +1548,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1474,6 +1595,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1516,6 +1642,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1558,6 +1689,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1600,6 +1736,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1642,6 +1783,11 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1684,6 +1830,11 @@
       <c r="J31" t="b">
         <v>1</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1726,6 +1877,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1768,6 +1924,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1810,6 +1971,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1852,6 +2018,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1894,6 +2065,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1936,6 +2112,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1978,6 +2159,7 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2020,6 +2202,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2058,6 +2245,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2100,6 +2292,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2142,6 +2339,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2180,6 +2382,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2222,6 +2429,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2264,6 +2476,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2306,6 +2523,11 @@
       <c r="J46" t="b">
         <v>1</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2348,6 +2570,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2390,6 +2617,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2432,6 +2664,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2474,6 +2711,11 @@
       <c r="J50" t="b">
         <v>1</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2516,6 +2758,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2558,6 +2805,11 @@
       <c r="J52" t="b">
         <v>1</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2600,6 +2852,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2642,6 +2899,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2684,6 +2946,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2726,6 +2993,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2768,6 +3040,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2810,6 +3087,7 @@
       <c r="J58" t="b">
         <v>1</v>
       </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2852,6 +3130,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2894,6 +3177,11 @@
       <c r="J60" t="b">
         <v>1</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2936,6 +3224,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2978,6 +3271,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3020,6 +3318,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3062,6 +3365,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3104,6 +3412,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3146,6 +3459,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3188,6 +3506,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3230,6 +3553,11 @@
       <c r="J68" t="b">
         <v>1</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3268,6 +3596,7 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3306,6 +3635,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3348,6 +3682,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3390,6 +3729,11 @@
       <c r="J72" t="b">
         <v>1</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3432,6 +3776,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3473,6 +3822,11 @@
       </c>
       <c r="J74" t="b">
         <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3512,6 +3866,11 @@
       <c r="J75" t="b">
         <v>1</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3554,6 +3913,11 @@
       <c r="J76" t="b">
         <v>1</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3596,6 +3960,11 @@
       <c r="J77" t="b">
         <v>1</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3638,6 +4007,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3680,6 +4054,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3722,6 +4101,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3764,6 +4148,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3806,6 +4195,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3848,6 +4242,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3890,6 +4289,11 @@
       <c r="J84" t="b">
         <v>1</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3928,6 +4332,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3970,6 +4379,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4012,6 +4426,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4054,6 +4473,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4096,6 +4520,11 @@
       <c r="J89" t="b">
         <v>1</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4138,6 +4567,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4180,6 +4614,11 @@
       <c r="J91" t="b">
         <v>1</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4222,6 +4661,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4264,6 +4708,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4306,6 +4755,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4348,6 +4802,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4390,6 +4849,11 @@
       <c r="J96" t="b">
         <v>1</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4431,6 +4895,11 @@
       </c>
       <c r="J97" t="b">
         <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4470,6 +4939,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4504,6 +4978,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4545,6 +5024,11 @@
       </c>
       <c r="J100" t="b">
         <v>1</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -4584,6 +5068,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4622,6 +5111,11 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4660,6 +5154,11 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4698,6 +5197,11 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4732,6 +5236,11 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4770,6 +5279,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4804,6 +5318,11 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4842,6 +5361,11 @@
       <c r="J108" t="b">
         <v>0</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4880,6 +5404,11 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4918,6 +5447,11 @@
       <c r="J110" t="b">
         <v>0</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4956,6 +5490,11 @@
       <c r="J111" t="b">
         <v>1</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4994,6 +5533,11 @@
       <c r="J112" t="b">
         <v>0</v>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5032,6 +5576,11 @@
       <c r="J113" t="b">
         <v>0</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5070,6 +5619,11 @@
       <c r="J114" t="b">
         <v>0</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5108,6 +5662,11 @@
       <c r="J115" t="b">
         <v>0</v>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5146,6 +5705,11 @@
       <c r="J116" t="b">
         <v>0</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5183,6 +5747,11 @@
       </c>
       <c r="J117" t="b">
         <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -5214,6 +5783,11 @@
       <c r="J118" t="b">
         <v>0</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5252,6 +5826,11 @@
       <c r="J119" t="b">
         <v>0</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5290,6 +5869,11 @@
       <c r="J120" t="b">
         <v>0</v>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5328,6 +5912,7 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
